--- a/Documentatie KT1/Kerntaak1/Klaar/2.Hernieuwde opdracht/Hernieuwde opdracht moscow.xlsx
+++ b/Documentatie KT1/Kerntaak1/Klaar/2.Hernieuwde opdracht/Hernieuwde opdracht moscow.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/Voetbalsensatie-Ionic/Documentatie KT1/Kerntaak1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28280" windowHeight="16660"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -64,9 +59,6 @@
     <t xml:space="preserve">uitloggen </t>
   </si>
   <si>
-    <t>account verwijderen</t>
-  </si>
-  <si>
     <t>Registreren gebruiker</t>
   </si>
   <si>
@@ -103,16 +95,10 @@
     <t>App voor Android maken</t>
   </si>
   <si>
-    <t>Geen informatie terug laten komen van de website.</t>
-  </si>
-  <si>
     <t>Social media buttons</t>
   </si>
   <si>
     <t>Ranglijst, live score, marktwaarde, komende wedstrijden, gespeelde wedstrijd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">krijgt melding bij in/uitloggen </t>
   </si>
   <si>
     <t>gegevens worden opgeslagen in de database</t>
@@ -147,12 +133,21 @@
       <t>Have</t>
     </r>
   </si>
+  <si>
+    <t>krijgt melding bij inloggen</t>
+  </si>
+  <si>
+    <t>Getest en werkt</t>
+  </si>
+  <si>
+    <t>Informatie terug laten komen van de website.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,8 +180,15 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,8 +201,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -217,11 +237,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -230,9 +294,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,22 +603,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -554,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
@@ -562,173 +635,199 @@
       <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="11"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="8"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -742,7 +841,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -754,7 +853,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
